--- a/solutions.xlsx
+++ b/solutions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E643"/>
+  <dimension ref="A1:F643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,9 @@
       <c r="E1" t="n">
         <v>0</v>
       </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -454,6 +457,9 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +477,9 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +497,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -505,6 +517,9 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -522,6 +537,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -539,6 +557,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -556,6 +577,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -573,6 +597,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -590,6 +617,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -607,6 +637,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -624,6 +657,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -641,6 +677,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -658,6 +697,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -675,6 +717,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -692,6 +737,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -709,6 +757,9 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -726,6 +777,9 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -743,6 +797,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -760,6 +817,9 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -777,6 +837,9 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -794,6 +857,9 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -811,6 +877,9 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -828,6 +897,9 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -845,6 +917,9 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -862,6 +937,9 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -879,6 +957,9 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -896,6 +977,9 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -913,6 +997,9 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -930,6 +1017,9 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -947,6 +1037,9 @@
       <c r="E31" t="n">
         <v>0.14</v>
       </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -964,6 +1057,9 @@
       <c r="E32" t="n">
         <v>0.15</v>
       </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -981,6 +1077,9 @@
       <c r="E33" t="n">
         <v>0.2</v>
       </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -998,6 +1097,9 @@
       <c r="E34" t="n">
         <v>0.22</v>
       </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1014,6 +1116,9 @@
       </c>
       <c r="E35" t="n">
         <v>0.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1032,6 +1137,9 @@
       <c r="E36" t="n">
         <v>0.15</v>
       </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1049,6 +1157,9 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1066,6 +1177,9 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1083,6 +1197,9 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1100,6 +1217,9 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1117,6 +1237,9 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1134,6 +1257,9 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1151,6 +1277,9 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1168,6 +1297,9 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1185,6 +1317,9 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1202,6 +1337,9 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1219,6 +1357,9 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1236,6 +1377,9 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1253,6 +1397,9 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1270,6 +1417,9 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1287,6 +1437,9 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1304,6 +1457,9 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1321,6 +1477,9 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1338,6 +1497,9 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1355,6 +1517,9 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1372,6 +1537,9 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1389,6 +1557,9 @@
       <c r="E57" t="n">
         <v>0</v>
       </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1406,6 +1577,9 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1423,6 +1597,9 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1440,6 +1617,9 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1457,6 +1637,9 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1474,6 +1657,9 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1491,6 +1677,9 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1508,6 +1697,9 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1525,6 +1717,9 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1542,6 +1737,9 @@
       <c r="E66" t="n">
         <v>0</v>
       </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1559,6 +1757,9 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1576,6 +1777,9 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1593,6 +1797,9 @@
       <c r="E69" t="n">
         <v>0</v>
       </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1610,6 +1817,9 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1627,6 +1837,9 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1644,6 +1857,9 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1661,6 +1877,9 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1678,6 +1897,9 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1695,6 +1917,9 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1712,6 +1937,9 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1729,6 +1957,9 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1746,6 +1977,9 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1763,6 +1997,9 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1780,6 +2017,9 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1797,6 +2037,9 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1814,6 +2057,9 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1831,6 +2077,9 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1848,6 +2097,9 @@
       <c r="E84" t="n">
         <v>0</v>
       </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1865,6 +2117,9 @@
       <c r="E85" t="n">
         <v>0</v>
       </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1882,6 +2137,9 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1899,6 +2157,9 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1916,6 +2177,9 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1933,6 +2197,9 @@
       <c r="E89" t="n">
         <v>0</v>
       </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1950,6 +2217,9 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1967,6 +2237,9 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1984,6 +2257,9 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2001,6 +2277,9 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2018,6 +2297,9 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2035,6 +2317,9 @@
       <c r="E95" t="n">
         <v>0</v>
       </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2052,6 +2337,9 @@
       <c r="E96" t="n">
         <v>0</v>
       </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2069,6 +2357,9 @@
       <c r="E97" t="n">
         <v>0</v>
       </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2086,6 +2377,9 @@
       <c r="E98" t="n">
         <v>0</v>
       </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2103,6 +2397,9 @@
       <c r="E99" t="n">
         <v>0</v>
       </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2120,6 +2417,9 @@
       <c r="E100" t="n">
         <v>0</v>
       </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2137,6 +2437,9 @@
       <c r="E101" t="n">
         <v>0</v>
       </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2154,6 +2457,9 @@
       <c r="E102" t="n">
         <v>0</v>
       </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2171,6 +2477,9 @@
       <c r="E103" t="n">
         <v>0</v>
       </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2188,6 +2497,9 @@
       <c r="E104" t="n">
         <v>0</v>
       </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2205,6 +2517,9 @@
       <c r="E105" t="n">
         <v>0</v>
       </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2222,6 +2537,9 @@
       <c r="E106" t="n">
         <v>0</v>
       </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2239,6 +2557,9 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2256,6 +2577,9 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2273,6 +2597,9 @@
       <c r="E109" t="n">
         <v>0</v>
       </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2290,6 +2617,9 @@
       <c r="E110" t="n">
         <v>0</v>
       </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2307,6 +2637,9 @@
       <c r="E111" t="n">
         <v>0</v>
       </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2324,6 +2657,9 @@
       <c r="E112" t="n">
         <v>0</v>
       </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2341,6 +2677,9 @@
       <c r="E113" t="n">
         <v>0</v>
       </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2358,6 +2697,9 @@
       <c r="E114" t="n">
         <v>0</v>
       </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2375,6 +2717,9 @@
       <c r="E115" t="n">
         <v>0</v>
       </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2392,6 +2737,9 @@
       <c r="E116" t="n">
         <v>0</v>
       </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2409,6 +2757,9 @@
       <c r="E117" t="n">
         <v>0</v>
       </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2426,6 +2777,9 @@
       <c r="E118" t="n">
         <v>0</v>
       </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2443,6 +2797,9 @@
       <c r="E119" t="n">
         <v>0</v>
       </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2460,6 +2817,9 @@
       <c r="E120" t="n">
         <v>0</v>
       </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2477,6 +2837,9 @@
       <c r="E121" t="n">
         <v>0</v>
       </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2494,6 +2857,9 @@
       <c r="E122" t="n">
         <v>0</v>
       </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2511,6 +2877,9 @@
       <c r="E123" t="n">
         <v>0</v>
       </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2528,6 +2897,9 @@
       <c r="E124" t="n">
         <v>0</v>
       </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2545,6 +2917,9 @@
       <c r="E125" t="n">
         <v>0</v>
       </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2562,6 +2937,9 @@
       <c r="E126" t="n">
         <v>0</v>
       </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2579,6 +2957,9 @@
       <c r="E127" t="n">
         <v>0</v>
       </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2596,6 +2977,9 @@
       <c r="E128" t="n">
         <v>0</v>
       </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2613,6 +2997,9 @@
       <c r="E129" t="n">
         <v>0</v>
       </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2630,6 +3017,9 @@
       <c r="E130" t="n">
         <v>0</v>
       </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2647,6 +3037,9 @@
       <c r="E131" t="n">
         <v>0</v>
       </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2664,6 +3057,9 @@
       <c r="E132" t="n">
         <v>0</v>
       </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2681,6 +3077,9 @@
       <c r="E133" t="n">
         <v>0</v>
       </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2698,6 +3097,9 @@
       <c r="E134" t="n">
         <v>0</v>
       </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2715,6 +3117,9 @@
       <c r="E135" t="n">
         <v>0</v>
       </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2732,6 +3137,9 @@
       <c r="E136" t="n">
         <v>0</v>
       </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2749,6 +3157,9 @@
       <c r="E137" t="n">
         <v>0</v>
       </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2766,6 +3177,9 @@
       <c r="E138" t="n">
         <v>0</v>
       </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2783,6 +3197,9 @@
       <c r="E139" t="n">
         <v>0</v>
       </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2800,6 +3217,9 @@
       <c r="E140" t="n">
         <v>0</v>
       </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2817,6 +3237,9 @@
       <c r="E141" t="n">
         <v>0</v>
       </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2834,6 +3257,9 @@
       <c r="E142" t="n">
         <v>0.26</v>
       </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2851,6 +3277,9 @@
       <c r="E143" t="n">
         <v>0.27</v>
       </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2868,6 +3297,9 @@
       <c r="E144" t="n">
         <v>0.26</v>
       </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2885,6 +3317,9 @@
       <c r="E145" t="n">
         <v>0.22</v>
       </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2902,6 +3337,9 @@
       <c r="E146" t="n">
         <v>0.19</v>
       </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2919,6 +3357,9 @@
       <c r="E147" t="n">
         <v>0.19</v>
       </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2935,6 +3376,9 @@
       </c>
       <c r="E148" t="n">
         <v>0.21</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2953,6 +3397,9 @@
       <c r="E149" t="n">
         <v>0.15</v>
       </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2970,6 +3417,9 @@
       <c r="E150" t="n">
         <v>0.15</v>
       </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2987,6 +3437,9 @@
       <c r="E151" t="n">
         <v>0.22</v>
       </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3004,6 +3457,9 @@
       <c r="E152" t="n">
         <v>0.21</v>
       </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3021,6 +3477,9 @@
       <c r="E153" t="n">
         <v>0.18</v>
       </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3038,6 +3497,9 @@
       <c r="E154" t="n">
         <v>0</v>
       </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3055,6 +3517,9 @@
       <c r="E155" t="n">
         <v>0</v>
       </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3072,6 +3537,9 @@
       <c r="E156" t="n">
         <v>0</v>
       </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3089,6 +3557,9 @@
       <c r="E157" t="n">
         <v>0</v>
       </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3106,6 +3577,9 @@
       <c r="E158" t="n">
         <v>0</v>
       </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3123,6 +3597,9 @@
       <c r="E159" t="n">
         <v>0</v>
       </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3140,6 +3617,9 @@
       <c r="E160" t="n">
         <v>0</v>
       </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3157,6 +3637,9 @@
       <c r="E161" t="n">
         <v>0</v>
       </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3174,6 +3657,9 @@
       <c r="E162" t="n">
         <v>0</v>
       </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3191,6 +3677,9 @@
       <c r="E163" t="n">
         <v>0</v>
       </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3208,6 +3697,9 @@
       <c r="E164" t="n">
         <v>0</v>
       </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3225,6 +3717,9 @@
       <c r="E165" t="n">
         <v>0</v>
       </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3242,6 +3737,9 @@
       <c r="E166" t="n">
         <v>0</v>
       </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3259,6 +3757,9 @@
       <c r="E167" t="n">
         <v>0</v>
       </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3276,6 +3777,9 @@
       <c r="E168" t="n">
         <v>0</v>
       </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3293,6 +3797,9 @@
       <c r="E169" t="n">
         <v>0</v>
       </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3310,6 +3817,9 @@
       <c r="E170" t="n">
         <v>0</v>
       </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3327,6 +3837,9 @@
       <c r="E171" t="n">
         <v>0</v>
       </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3344,6 +3857,9 @@
       <c r="E172" t="n">
         <v>0</v>
       </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3361,6 +3877,9 @@
       <c r="E173" t="n">
         <v>0</v>
       </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3378,6 +3897,9 @@
       <c r="E174" t="n">
         <v>0</v>
       </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3395,6 +3917,9 @@
       <c r="E175" t="n">
         <v>0</v>
       </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3412,6 +3937,9 @@
       <c r="E176" t="n">
         <v>0</v>
       </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3429,6 +3957,9 @@
       <c r="E177" t="n">
         <v>0</v>
       </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3446,6 +3977,9 @@
       <c r="E178" t="n">
         <v>0</v>
       </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3463,6 +3997,9 @@
       <c r="E179" t="n">
         <v>0</v>
       </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3480,6 +4017,9 @@
       <c r="E180" t="n">
         <v>0</v>
       </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3497,6 +4037,9 @@
       <c r="E181" t="n">
         <v>0</v>
       </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3514,6 +4057,9 @@
       <c r="E182" t="n">
         <v>0</v>
       </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3531,6 +4077,9 @@
       <c r="E183" t="n">
         <v>0</v>
       </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3548,6 +4097,9 @@
       <c r="E184" t="n">
         <v>0</v>
       </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3565,6 +4117,9 @@
       <c r="E185" t="n">
         <v>0</v>
       </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3582,6 +4137,9 @@
       <c r="E186" t="n">
         <v>0</v>
       </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3599,6 +4157,9 @@
       <c r="E187" t="n">
         <v>0</v>
       </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3616,6 +4177,9 @@
       <c r="E188" t="n">
         <v>0</v>
       </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3633,6 +4197,9 @@
       <c r="E189" t="n">
         <v>0</v>
       </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3650,6 +4217,9 @@
       <c r="E190" t="n">
         <v>0.19</v>
       </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3667,6 +4237,9 @@
       <c r="E191" t="n">
         <v>0.11</v>
       </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3684,6 +4257,9 @@
       <c r="E192" t="n">
         <v>0.18</v>
       </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3701,6 +4277,9 @@
       <c r="E193" t="n">
         <v>0</v>
       </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3718,6 +4297,9 @@
       <c r="E194" t="n">
         <v>0</v>
       </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3735,6 +4317,9 @@
       <c r="E195" t="n">
         <v>0</v>
       </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3752,6 +4337,9 @@
       <c r="E196" t="n">
         <v>0</v>
       </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3769,6 +4357,9 @@
       <c r="E197" t="n">
         <v>0</v>
       </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3786,6 +4377,9 @@
       <c r="E198" t="n">
         <v>0</v>
       </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3803,6 +4397,9 @@
       <c r="E199" t="n">
         <v>0</v>
       </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3820,6 +4417,9 @@
       <c r="E200" t="n">
         <v>0</v>
       </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3837,6 +4437,9 @@
       <c r="E201" t="n">
         <v>0</v>
       </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3854,6 +4457,9 @@
       <c r="E202" t="n">
         <v>0</v>
       </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3871,6 +4477,9 @@
       <c r="E203" t="n">
         <v>0</v>
       </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3888,6 +4497,9 @@
       <c r="E204" t="n">
         <v>0</v>
       </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3905,6 +4517,9 @@
       <c r="E205" t="n">
         <v>0</v>
       </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3922,6 +4537,9 @@
       <c r="E206" t="n">
         <v>0</v>
       </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3939,6 +4557,9 @@
       <c r="E207" t="n">
         <v>0</v>
       </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3956,6 +4577,9 @@
       <c r="E208" t="n">
         <v>0</v>
       </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3973,6 +4597,9 @@
       <c r="E209" t="n">
         <v>0</v>
       </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3990,6 +4617,9 @@
       <c r="E210" t="n">
         <v>0</v>
       </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4007,6 +4637,9 @@
       <c r="E211" t="n">
         <v>0</v>
       </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4024,6 +4657,9 @@
       <c r="E212" t="n">
         <v>0</v>
       </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4041,6 +4677,9 @@
       <c r="E213" t="n">
         <v>0</v>
       </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4058,6 +4697,9 @@
       <c r="E214" t="n">
         <v>0</v>
       </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4075,6 +4717,9 @@
       <c r="E215" t="n">
         <v>0</v>
       </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4092,6 +4737,9 @@
       <c r="E216" t="n">
         <v>0</v>
       </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4109,6 +4757,9 @@
       <c r="E217" t="n">
         <v>0</v>
       </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4126,6 +4777,9 @@
       <c r="E218" t="n">
         <v>0</v>
       </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4143,6 +4797,9 @@
       <c r="E219" t="n">
         <v>0</v>
       </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4160,6 +4817,9 @@
       <c r="E220" t="n">
         <v>0</v>
       </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4177,6 +4837,9 @@
       <c r="E221" t="n">
         <v>0</v>
       </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4194,6 +4857,9 @@
       <c r="E222" t="n">
         <v>0</v>
       </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4211,6 +4877,9 @@
       <c r="E223" t="n">
         <v>0</v>
       </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4228,6 +4897,9 @@
       <c r="E224" t="n">
         <v>0</v>
       </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4245,6 +4917,9 @@
       <c r="E225" t="n">
         <v>0</v>
       </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4262,6 +4937,9 @@
       <c r="E226" t="n">
         <v>0</v>
       </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4279,6 +4957,9 @@
       <c r="E227" t="n">
         <v>0</v>
       </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4296,6 +4977,9 @@
       <c r="E228" t="n">
         <v>0</v>
       </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4313,6 +4997,9 @@
       <c r="E229" t="n">
         <v>0</v>
       </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4330,6 +5017,9 @@
       <c r="E230" t="n">
         <v>0</v>
       </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4347,6 +5037,9 @@
       <c r="E231" t="n">
         <v>0</v>
       </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4364,6 +5057,9 @@
       <c r="E232" t="n">
         <v>0</v>
       </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4381,6 +5077,9 @@
       <c r="E233" t="n">
         <v>0</v>
       </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4398,6 +5097,9 @@
       <c r="E234" t="n">
         <v>0</v>
       </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4415,6 +5117,9 @@
       <c r="E235" t="n">
         <v>0</v>
       </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4432,6 +5137,9 @@
       <c r="E236" t="n">
         <v>0</v>
       </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4449,6 +5157,9 @@
       <c r="E237" t="n">
         <v>0</v>
       </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4466,6 +5177,9 @@
       <c r="E238" t="n">
         <v>0</v>
       </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4483,6 +5197,9 @@
       <c r="E239" t="n">
         <v>0</v>
       </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4500,6 +5217,9 @@
       <c r="E240" t="n">
         <v>0</v>
       </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4517,6 +5237,9 @@
       <c r="E241" t="n">
         <v>0</v>
       </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4534,6 +5257,9 @@
       <c r="E242" t="n">
         <v>0</v>
       </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4551,6 +5277,9 @@
       <c r="E243" t="n">
         <v>0</v>
       </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4568,6 +5297,9 @@
       <c r="E244" t="n">
         <v>0</v>
       </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4585,6 +5317,9 @@
       <c r="E245" t="n">
         <v>0</v>
       </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4602,6 +5337,9 @@
       <c r="E246" t="n">
         <v>0</v>
       </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4619,6 +5357,9 @@
       <c r="E247" t="n">
         <v>0</v>
       </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4636,6 +5377,9 @@
       <c r="E248" t="n">
         <v>0</v>
       </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4653,6 +5397,9 @@
       <c r="E249" t="n">
         <v>0</v>
       </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4670,6 +5417,9 @@
       <c r="E250" t="n">
         <v>0</v>
       </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4687,6 +5437,9 @@
       <c r="E251" t="n">
         <v>0</v>
       </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4704,6 +5457,9 @@
       <c r="E252" t="n">
         <v>0</v>
       </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4721,6 +5477,9 @@
       <c r="E253" t="n">
         <v>0</v>
       </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4738,6 +5497,9 @@
       <c r="E254" t="n">
         <v>0</v>
       </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4755,6 +5517,9 @@
       <c r="E255" t="n">
         <v>0</v>
       </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4772,6 +5537,9 @@
       <c r="E256" t="n">
         <v>0</v>
       </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4789,6 +5557,9 @@
       <c r="E257" t="n">
         <v>0</v>
       </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4806,6 +5577,9 @@
       <c r="E258" t="n">
         <v>0</v>
       </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4823,6 +5597,9 @@
       <c r="E259" t="n">
         <v>0</v>
       </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4840,6 +5617,9 @@
       <c r="E260" t="n">
         <v>0</v>
       </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4857,6 +5637,9 @@
       <c r="E261" t="n">
         <v>0</v>
       </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4874,6 +5657,9 @@
       <c r="E262" t="n">
         <v>0</v>
       </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4891,6 +5677,9 @@
       <c r="E263" t="n">
         <v>0</v>
       </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4908,6 +5697,9 @@
       <c r="E264" t="n">
         <v>0</v>
       </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4925,6 +5717,9 @@
       <c r="E265" t="n">
         <v>0</v>
       </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4942,6 +5737,9 @@
       <c r="E266" t="n">
         <v>0</v>
       </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4959,6 +5757,9 @@
       <c r="E267" t="n">
         <v>0</v>
       </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4976,6 +5777,9 @@
       <c r="E268" t="n">
         <v>0</v>
       </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4993,6 +5797,9 @@
       <c r="E269" t="n">
         <v>0</v>
       </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5010,6 +5817,9 @@
       <c r="E270" t="n">
         <v>0</v>
       </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5027,6 +5837,9 @@
       <c r="E271" t="n">
         <v>0</v>
       </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5044,6 +5857,9 @@
       <c r="E272" t="n">
         <v>0</v>
       </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5061,6 +5877,9 @@
       <c r="E273" t="n">
         <v>0</v>
       </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5078,6 +5897,9 @@
       <c r="E274" t="n">
         <v>0</v>
       </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5095,6 +5917,9 @@
       <c r="E275" t="n">
         <v>0</v>
       </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5112,6 +5937,9 @@
       <c r="E276" t="n">
         <v>0.16</v>
       </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5129,6 +5957,9 @@
       <c r="E277" t="n">
         <v>0.14</v>
       </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5146,6 +5977,9 @@
       <c r="E278" t="n">
         <v>0.14</v>
       </c>
+      <c r="F278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -5163,6 +5997,9 @@
       <c r="E279" t="n">
         <v>0</v>
       </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5180,6 +6017,9 @@
       <c r="E280" t="n">
         <v>0</v>
       </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5197,6 +6037,9 @@
       <c r="E281" t="n">
         <v>0</v>
       </c>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5214,6 +6057,9 @@
       <c r="E282" t="n">
         <v>0</v>
       </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5231,6 +6077,9 @@
       <c r="E283" t="n">
         <v>0</v>
       </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5248,6 +6097,9 @@
       <c r="E284" t="n">
         <v>0</v>
       </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5265,6 +6117,9 @@
       <c r="E285" t="n">
         <v>0</v>
       </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5282,6 +6137,9 @@
       <c r="E286" t="n">
         <v>0</v>
       </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5299,6 +6157,9 @@
       <c r="E287" t="n">
         <v>0</v>
       </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5316,6 +6177,9 @@
       <c r="E288" t="n">
         <v>0</v>
       </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5333,6 +6197,9 @@
       <c r="E289" t="n">
         <v>0</v>
       </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5350,6 +6217,9 @@
       <c r="E290" t="n">
         <v>0</v>
       </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5367,6 +6237,9 @@
       <c r="E291" t="n">
         <v>0</v>
       </c>
+      <c r="F291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5384,6 +6257,9 @@
       <c r="E292" t="n">
         <v>0</v>
       </c>
+      <c r="F292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5401,6 +6277,9 @@
       <c r="E293" t="n">
         <v>0</v>
       </c>
+      <c r="F293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5418,6 +6297,9 @@
       <c r="E294" t="n">
         <v>0.16</v>
       </c>
+      <c r="F294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5435,6 +6317,9 @@
       <c r="E295" t="n">
         <v>0.16</v>
       </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5452,6 +6337,9 @@
       <c r="E296" t="n">
         <v>0.18</v>
       </c>
+      <c r="F296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5468,6 +6356,9 @@
       </c>
       <c r="E297" t="n">
         <v>0.2</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -5486,6 +6377,9 @@
       <c r="E298" t="n">
         <v>0.15</v>
       </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5503,6 +6397,9 @@
       <c r="E299" t="n">
         <v>0.18</v>
       </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5520,6 +6417,9 @@
       <c r="E300" t="n">
         <v>0.17</v>
       </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5537,6 +6437,9 @@
       <c r="E301" t="n">
         <v>0.18</v>
       </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5554,6 +6457,9 @@
       <c r="E302" t="n">
         <v>0.18</v>
       </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5571,6 +6477,9 @@
       <c r="E303" t="n">
         <v>0.22</v>
       </c>
+      <c r="F303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5588,6 +6497,9 @@
       <c r="E304" t="n">
         <v>0</v>
       </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5605,6 +6517,9 @@
       <c r="E305" t="n">
         <v>0</v>
       </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -5622,6 +6537,9 @@
       <c r="E306" t="n">
         <v>0</v>
       </c>
+      <c r="F306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -5639,6 +6557,9 @@
       <c r="E307" t="n">
         <v>0</v>
       </c>
+      <c r="F307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -5656,6 +6577,9 @@
       <c r="E308" t="n">
         <v>0</v>
       </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -5673,6 +6597,9 @@
       <c r="E309" t="n">
         <v>0</v>
       </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -5690,6 +6617,9 @@
       <c r="E310" t="n">
         <v>0</v>
       </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -5707,6 +6637,9 @@
       <c r="E311" t="n">
         <v>0</v>
       </c>
+      <c r="F311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -5724,6 +6657,9 @@
       <c r="E312" t="n">
         <v>0</v>
       </c>
+      <c r="F312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -5741,6 +6677,9 @@
       <c r="E313" t="n">
         <v>0</v>
       </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -5758,6 +6697,9 @@
       <c r="E314" t="n">
         <v>0</v>
       </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -5775,6 +6717,9 @@
       <c r="E315" t="n">
         <v>0</v>
       </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -5792,6 +6737,9 @@
       <c r="E316" t="n">
         <v>0</v>
       </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -5809,6 +6757,9 @@
       <c r="E317" t="n">
         <v>0</v>
       </c>
+      <c r="F317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -5826,6 +6777,9 @@
       <c r="E318" t="n">
         <v>0</v>
       </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -5843,6 +6797,9 @@
       <c r="E319" t="n">
         <v>0</v>
       </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -5860,6 +6817,9 @@
       <c r="E320" t="n">
         <v>0</v>
       </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -5877,6 +6837,9 @@
       <c r="E321" t="n">
         <v>0</v>
       </c>
+      <c r="F321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -5894,6 +6857,9 @@
       <c r="E322" t="n">
         <v>0</v>
       </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -5911,6 +6877,9 @@
       <c r="E323" t="n">
         <v>0</v>
       </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -5928,6 +6897,9 @@
       <c r="E324" t="n">
         <v>0</v>
       </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -5945,6 +6917,9 @@
       <c r="E325" t="n">
         <v>0</v>
       </c>
+      <c r="F325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -5962,6 +6937,9 @@
       <c r="E326" t="n">
         <v>0</v>
       </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -5979,6 +6957,9 @@
       <c r="E327" t="n">
         <v>0</v>
       </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -5996,6 +6977,9 @@
       <c r="E328" t="n">
         <v>0</v>
       </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -6013,6 +6997,9 @@
       <c r="E329" t="n">
         <v>0</v>
       </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -6030,6 +7017,9 @@
       <c r="E330" t="n">
         <v>0</v>
       </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -6047,6 +7037,9 @@
       <c r="E331" t="n">
         <v>0</v>
       </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -6064,6 +7057,9 @@
       <c r="E332" t="n">
         <v>0</v>
       </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -6081,6 +7077,9 @@
       <c r="E333" t="n">
         <v>0</v>
       </c>
+      <c r="F333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -6098,6 +7097,9 @@
       <c r="E334" t="n">
         <v>0</v>
       </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -6115,6 +7117,9 @@
       <c r="E335" t="n">
         <v>0</v>
       </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -6132,6 +7137,9 @@
       <c r="E336" t="n">
         <v>0</v>
       </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -6149,6 +7157,9 @@
       <c r="E337" t="n">
         <v>0</v>
       </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -6166,6 +7177,9 @@
       <c r="E338" t="n">
         <v>0</v>
       </c>
+      <c r="F338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -6183,6 +7197,9 @@
       <c r="E339" t="n">
         <v>0</v>
       </c>
+      <c r="F339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -6200,6 +7217,9 @@
       <c r="E340" t="n">
         <v>0</v>
       </c>
+      <c r="F340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -6217,6 +7237,9 @@
       <c r="E341" t="n">
         <v>0</v>
       </c>
+      <c r="F341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -6234,6 +7257,9 @@
       <c r="E342" t="n">
         <v>0</v>
       </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -6251,6 +7277,9 @@
       <c r="E343" t="n">
         <v>0</v>
       </c>
+      <c r="F343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -6268,6 +7297,9 @@
       <c r="E344" t="n">
         <v>0</v>
       </c>
+      <c r="F344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -6285,6 +7317,9 @@
       <c r="E345" t="n">
         <v>0</v>
       </c>
+      <c r="F345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -6302,6 +7337,9 @@
       <c r="E346" t="n">
         <v>0</v>
       </c>
+      <c r="F346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -6319,6 +7357,9 @@
       <c r="E347" t="n">
         <v>0</v>
       </c>
+      <c r="F347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -6336,6 +7377,9 @@
       <c r="E348" t="n">
         <v>0</v>
       </c>
+      <c r="F348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -6353,6 +7397,9 @@
       <c r="E349" t="n">
         <v>0</v>
       </c>
+      <c r="F349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -6370,6 +7417,9 @@
       <c r="E350" t="n">
         <v>0</v>
       </c>
+      <c r="F350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -6387,6 +7437,9 @@
       <c r="E351" t="n">
         <v>0</v>
       </c>
+      <c r="F351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -6404,6 +7457,9 @@
       <c r="E352" t="n">
         <v>0</v>
       </c>
+      <c r="F352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -6421,6 +7477,9 @@
       <c r="E353" t="n">
         <v>0</v>
       </c>
+      <c r="F353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -6438,6 +7497,9 @@
       <c r="E354" t="n">
         <v>0</v>
       </c>
+      <c r="F354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -6455,6 +7517,9 @@
       <c r="E355" t="n">
         <v>0</v>
       </c>
+      <c r="F355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -6472,6 +7537,9 @@
       <c r="E356" t="n">
         <v>0</v>
       </c>
+      <c r="F356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -6489,6 +7557,9 @@
       <c r="E357" t="n">
         <v>0</v>
       </c>
+      <c r="F357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -6506,6 +7577,9 @@
       <c r="E358" t="n">
         <v>0</v>
       </c>
+      <c r="F358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -6523,6 +7597,9 @@
       <c r="E359" t="n">
         <v>0</v>
       </c>
+      <c r="F359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -6540,6 +7617,9 @@
       <c r="E360" t="n">
         <v>0</v>
       </c>
+      <c r="F360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -6557,6 +7637,9 @@
       <c r="E361" t="n">
         <v>0</v>
       </c>
+      <c r="F361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -6574,6 +7657,9 @@
       <c r="E362" t="n">
         <v>0</v>
       </c>
+      <c r="F362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -6591,6 +7677,9 @@
       <c r="E363" t="n">
         <v>0</v>
       </c>
+      <c r="F363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -6608,6 +7697,9 @@
       <c r="E364" t="n">
         <v>0</v>
       </c>
+      <c r="F364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -6625,6 +7717,9 @@
       <c r="E365" t="n">
         <v>0</v>
       </c>
+      <c r="F365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -6642,6 +7737,9 @@
       <c r="E366" t="n">
         <v>0</v>
       </c>
+      <c r="F366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -6659,6 +7757,9 @@
       <c r="E367" t="n">
         <v>0</v>
       </c>
+      <c r="F367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -6676,6 +7777,9 @@
       <c r="E368" t="n">
         <v>0</v>
       </c>
+      <c r="F368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -6693,6 +7797,9 @@
       <c r="E369" t="n">
         <v>0</v>
       </c>
+      <c r="F369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -6710,6 +7817,9 @@
       <c r="E370" t="n">
         <v>0</v>
       </c>
+      <c r="F370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -6727,6 +7837,9 @@
       <c r="E371" t="n">
         <v>0</v>
       </c>
+      <c r="F371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -6744,6 +7857,9 @@
       <c r="E372" t="n">
         <v>0</v>
       </c>
+      <c r="F372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -6761,6 +7877,9 @@
       <c r="E373" t="n">
         <v>0</v>
       </c>
+      <c r="F373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -6778,6 +7897,9 @@
       <c r="E374" t="n">
         <v>0</v>
       </c>
+      <c r="F374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -6795,6 +7917,9 @@
       <c r="E375" t="n">
         <v>0</v>
       </c>
+      <c r="F375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -6812,6 +7937,9 @@
       <c r="E376" t="n">
         <v>0</v>
       </c>
+      <c r="F376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -6829,6 +7957,9 @@
       <c r="E377" t="n">
         <v>0</v>
       </c>
+      <c r="F377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -6846,6 +7977,9 @@
       <c r="E378" t="n">
         <v>0</v>
       </c>
+      <c r="F378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -6863,6 +7997,9 @@
       <c r="E379" t="n">
         <v>0</v>
       </c>
+      <c r="F379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -6880,6 +8017,9 @@
       <c r="E380" t="n">
         <v>0</v>
       </c>
+      <c r="F380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -6897,6 +8037,9 @@
       <c r="E381" t="n">
         <v>0</v>
       </c>
+      <c r="F381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -6914,6 +8057,9 @@
       <c r="E382" t="n">
         <v>0</v>
       </c>
+      <c r="F382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -6931,6 +8077,9 @@
       <c r="E383" t="n">
         <v>0</v>
       </c>
+      <c r="F383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -6948,6 +8097,9 @@
       <c r="E384" t="n">
         <v>0</v>
       </c>
+      <c r="F384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -6965,6 +8117,9 @@
       <c r="E385" t="n">
         <v>0</v>
       </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -6982,6 +8137,9 @@
       <c r="E386" t="n">
         <v>0</v>
       </c>
+      <c r="F386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -6999,6 +8157,9 @@
       <c r="E387" t="n">
         <v>0</v>
       </c>
+      <c r="F387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -7016,6 +8177,9 @@
       <c r="E388" t="n">
         <v>0</v>
       </c>
+      <c r="F388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -7033,6 +8197,9 @@
       <c r="E389" t="n">
         <v>0</v>
       </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -7050,6 +8217,9 @@
       <c r="E390" t="n">
         <v>0</v>
       </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -7067,6 +8237,9 @@
       <c r="E391" t="n">
         <v>0</v>
       </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -7084,6 +8257,9 @@
       <c r="E392" t="n">
         <v>0</v>
       </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -7101,6 +8277,9 @@
       <c r="E393" t="n">
         <v>0</v>
       </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -7118,6 +8297,9 @@
       <c r="E394" t="n">
         <v>0</v>
       </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -7135,6 +8317,9 @@
       <c r="E395" t="n">
         <v>0</v>
       </c>
+      <c r="F395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -7152,6 +8337,9 @@
       <c r="E396" t="n">
         <v>0</v>
       </c>
+      <c r="F396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -7169,6 +8357,9 @@
       <c r="E397" t="n">
         <v>0</v>
       </c>
+      <c r="F397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -7186,6 +8377,9 @@
       <c r="E398" t="n">
         <v>0</v>
       </c>
+      <c r="F398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -7203,6 +8397,9 @@
       <c r="E399" t="n">
         <v>0</v>
       </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -7220,6 +8417,9 @@
       <c r="E400" t="n">
         <v>0</v>
       </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -7237,6 +8437,9 @@
       <c r="E401" t="n">
         <v>0</v>
       </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -7254,6 +8457,9 @@
       <c r="E402" t="n">
         <v>0</v>
       </c>
+      <c r="F402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -7271,6 +8477,9 @@
       <c r="E403" t="n">
         <v>0</v>
       </c>
+      <c r="F403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -7288,6 +8497,9 @@
       <c r="E404" t="n">
         <v>0</v>
       </c>
+      <c r="F404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -7305,6 +8517,9 @@
       <c r="E405" t="n">
         <v>0</v>
       </c>
+      <c r="F405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -7322,6 +8537,9 @@
       <c r="E406" t="n">
         <v>0</v>
       </c>
+      <c r="F406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -7339,6 +8557,9 @@
       <c r="E407" t="n">
         <v>0</v>
       </c>
+      <c r="F407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -7356,6 +8577,9 @@
       <c r="E408" t="n">
         <v>0</v>
       </c>
+      <c r="F408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -7373,6 +8597,9 @@
       <c r="E409" t="n">
         <v>0</v>
       </c>
+      <c r="F409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -7390,6 +8617,9 @@
       <c r="E410" t="n">
         <v>0</v>
       </c>
+      <c r="F410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -7407,6 +8637,9 @@
       <c r="E411" t="n">
         <v>0</v>
       </c>
+      <c r="F411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -7424,6 +8657,9 @@
       <c r="E412" t="n">
         <v>0</v>
       </c>
+      <c r="F412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -7441,6 +8677,9 @@
       <c r="E413" t="n">
         <v>0</v>
       </c>
+      <c r="F413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -7458,6 +8697,9 @@
       <c r="E414" t="n">
         <v>0</v>
       </c>
+      <c r="F414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -7475,6 +8717,9 @@
       <c r="E415" t="n">
         <v>0</v>
       </c>
+      <c r="F415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -7492,6 +8737,9 @@
       <c r="E416" t="n">
         <v>0</v>
       </c>
+      <c r="F416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -7509,6 +8757,9 @@
       <c r="E417" t="n">
         <v>0</v>
       </c>
+      <c r="F417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -7526,6 +8777,9 @@
       <c r="E418" t="n">
         <v>0</v>
       </c>
+      <c r="F418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -7543,6 +8797,9 @@
       <c r="E419" t="n">
         <v>0</v>
       </c>
+      <c r="F419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -7560,6 +8817,9 @@
       <c r="E420" t="n">
         <v>0</v>
       </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -7577,6 +8837,9 @@
       <c r="E421" t="n">
         <v>0</v>
       </c>
+      <c r="F421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -7594,6 +8857,9 @@
       <c r="E422" t="n">
         <v>0</v>
       </c>
+      <c r="F422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -7611,6 +8877,9 @@
       <c r="E423" t="n">
         <v>0</v>
       </c>
+      <c r="F423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -7628,6 +8897,9 @@
       <c r="E424" t="n">
         <v>0</v>
       </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -7645,6 +8917,9 @@
       <c r="E425" t="n">
         <v>0</v>
       </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -7662,6 +8937,9 @@
       <c r="E426" t="n">
         <v>0</v>
       </c>
+      <c r="F426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -7679,6 +8957,9 @@
       <c r="E427" t="n">
         <v>0</v>
       </c>
+      <c r="F427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -7696,6 +8977,9 @@
       <c r="E428" t="n">
         <v>0</v>
       </c>
+      <c r="F428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -7713,6 +8997,9 @@
       <c r="E429" t="n">
         <v>0</v>
       </c>
+      <c r="F429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -7730,6 +9017,9 @@
       <c r="E430" t="n">
         <v>0</v>
       </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -7747,6 +9037,9 @@
       <c r="E431" t="n">
         <v>0</v>
       </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -7764,6 +9057,9 @@
       <c r="E432" t="n">
         <v>0</v>
       </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -7781,6 +9077,9 @@
       <c r="E433" t="n">
         <v>0</v>
       </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -7798,6 +9097,9 @@
       <c r="E434" t="n">
         <v>0</v>
       </c>
+      <c r="F434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -7815,6 +9117,9 @@
       <c r="E435" t="n">
         <v>0</v>
       </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -7832,6 +9137,9 @@
       <c r="E436" t="n">
         <v>0</v>
       </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -7849,6 +9157,9 @@
       <c r="E437" t="n">
         <v>0</v>
       </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -7866,6 +9177,9 @@
       <c r="E438" t="n">
         <v>0</v>
       </c>
+      <c r="F438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -7883,6 +9197,9 @@
       <c r="E439" t="n">
         <v>0</v>
       </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -7900,6 +9217,9 @@
       <c r="E440" t="n">
         <v>0.16</v>
       </c>
+      <c r="F440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -7917,6 +9237,9 @@
       <c r="E441" t="n">
         <v>0.16</v>
       </c>
+      <c r="F441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -7934,6 +9257,9 @@
       <c r="E442" t="n">
         <v>0.16</v>
       </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -7951,6 +9277,9 @@
       <c r="E443" t="n">
         <v>0.16</v>
       </c>
+      <c r="F443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -7967,6 +9296,9 @@
       </c>
       <c r="E444" t="n">
         <v>0.19</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -7985,6 +9317,9 @@
       <c r="E445" t="n">
         <v>0.14</v>
       </c>
+      <c r="F445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -8002,6 +9337,9 @@
       <c r="E446" t="n">
         <v>0.13</v>
       </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -8019,6 +9357,9 @@
       <c r="E447" t="n">
         <v>0.17</v>
       </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -8036,6 +9377,9 @@
       <c r="E448" t="n">
         <v>0.2</v>
       </c>
+      <c r="F448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -8052,6 +9396,9 @@
       </c>
       <c r="E449" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -8070,6 +9417,9 @@
       <c r="E450" t="n">
         <v>0.15</v>
       </c>
+      <c r="F450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -8087,6 +9437,9 @@
       <c r="E451" t="n">
         <v>0.21</v>
       </c>
+      <c r="F451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -8104,6 +9457,9 @@
       <c r="E452" t="n">
         <v>0.19</v>
       </c>
+      <c r="F452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -8121,6 +9477,9 @@
       <c r="E453" t="n">
         <v>0.18</v>
       </c>
+      <c r="F453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -8138,6 +9497,9 @@
       <c r="E454" t="n">
         <v>0.16</v>
       </c>
+      <c r="F454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -8155,6 +9517,9 @@
       <c r="E455" t="n">
         <v>0.16</v>
       </c>
+      <c r="F455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -8172,6 +9537,9 @@
       <c r="E456" t="n">
         <v>0.18</v>
       </c>
+      <c r="F456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -8189,6 +9557,9 @@
       <c r="E457" t="n">
         <v>0.17</v>
       </c>
+      <c r="F457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -8206,6 +9577,9 @@
       <c r="E458" t="n">
         <v>0.2</v>
       </c>
+      <c r="F458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -8223,6 +9597,9 @@
       <c r="E459" t="n">
         <v>0.11</v>
       </c>
+      <c r="F459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -8240,6 +9617,9 @@
       <c r="E460" t="n">
         <v>0</v>
       </c>
+      <c r="F460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -8257,6 +9637,9 @@
       <c r="E461" t="n">
         <v>0.16</v>
       </c>
+      <c r="F461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -8274,6 +9657,9 @@
       <c r="E462" t="n">
         <v>0.19</v>
       </c>
+      <c r="F462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -8291,6 +9677,9 @@
       <c r="E463" t="n">
         <v>0</v>
       </c>
+      <c r="F463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -8308,6 +9697,9 @@
       <c r="E464" t="n">
         <v>0</v>
       </c>
+      <c r="F464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -8325,6 +9717,9 @@
       <c r="E465" t="n">
         <v>0</v>
       </c>
+      <c r="F465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -8342,6 +9737,9 @@
       <c r="E466" t="n">
         <v>0</v>
       </c>
+      <c r="F466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -8359,6 +9757,9 @@
       <c r="E467" t="n">
         <v>0</v>
       </c>
+      <c r="F467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -8376,6 +9777,9 @@
       <c r="E468" t="n">
         <v>0</v>
       </c>
+      <c r="F468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -8393,6 +9797,9 @@
       <c r="E469" t="n">
         <v>0</v>
       </c>
+      <c r="F469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -8410,6 +9817,9 @@
       <c r="E470" t="n">
         <v>0</v>
       </c>
+      <c r="F470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -8427,6 +9837,9 @@
       <c r="E471" t="n">
         <v>0</v>
       </c>
+      <c r="F471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -8444,6 +9857,9 @@
       <c r="E472" t="n">
         <v>0</v>
       </c>
+      <c r="F472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -8461,6 +9877,9 @@
       <c r="E473" t="n">
         <v>0</v>
       </c>
+      <c r="F473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -8478,6 +9897,9 @@
       <c r="E474" t="n">
         <v>0</v>
       </c>
+      <c r="F474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -8495,6 +9917,9 @@
       <c r="E475" t="n">
         <v>0</v>
       </c>
+      <c r="F475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -8512,6 +9937,9 @@
       <c r="E476" t="n">
         <v>0</v>
       </c>
+      <c r="F476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -8529,6 +9957,9 @@
       <c r="E477" t="n">
         <v>0</v>
       </c>
+      <c r="F477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -8546,6 +9977,9 @@
       <c r="E478" t="n">
         <v>0</v>
       </c>
+      <c r="F478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -8563,6 +9997,9 @@
       <c r="E479" t="n">
         <v>0</v>
       </c>
+      <c r="F479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -8580,6 +10017,9 @@
       <c r="E480" t="n">
         <v>0</v>
       </c>
+      <c r="F480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -8597,6 +10037,9 @@
       <c r="E481" t="n">
         <v>0</v>
       </c>
+      <c r="F481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -8614,6 +10057,9 @@
       <c r="E482" t="n">
         <v>0</v>
       </c>
+      <c r="F482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -8631,6 +10077,9 @@
       <c r="E483" t="n">
         <v>0</v>
       </c>
+      <c r="F483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -8648,6 +10097,9 @@
       <c r="E484" t="n">
         <v>0</v>
       </c>
+      <c r="F484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -8665,6 +10117,9 @@
       <c r="E485" t="n">
         <v>0</v>
       </c>
+      <c r="F485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -8682,6 +10137,9 @@
       <c r="E486" t="n">
         <v>0</v>
       </c>
+      <c r="F486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -8699,6 +10157,9 @@
       <c r="E487" t="n">
         <v>0</v>
       </c>
+      <c r="F487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -8716,6 +10177,9 @@
       <c r="E488" t="n">
         <v>0</v>
       </c>
+      <c r="F488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -8733,6 +10197,9 @@
       <c r="E489" t="n">
         <v>0</v>
       </c>
+      <c r="F489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -8750,6 +10217,9 @@
       <c r="E490" t="n">
         <v>0</v>
       </c>
+      <c r="F490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -8767,6 +10237,9 @@
       <c r="E491" t="n">
         <v>0</v>
       </c>
+      <c r="F491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -8784,6 +10257,9 @@
       <c r="E492" t="n">
         <v>0</v>
       </c>
+      <c r="F492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -8801,6 +10277,9 @@
       <c r="E493" t="n">
         <v>0</v>
       </c>
+      <c r="F493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -8818,6 +10297,9 @@
       <c r="E494" t="n">
         <v>0</v>
       </c>
+      <c r="F494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -8835,6 +10317,9 @@
       <c r="E495" t="n">
         <v>0</v>
       </c>
+      <c r="F495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -8852,6 +10337,9 @@
       <c r="E496" t="n">
         <v>0</v>
       </c>
+      <c r="F496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -8869,6 +10357,9 @@
       <c r="E497" t="n">
         <v>0</v>
       </c>
+      <c r="F497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -8886,6 +10377,9 @@
       <c r="E498" t="n">
         <v>0</v>
       </c>
+      <c r="F498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -8903,6 +10397,9 @@
       <c r="E499" t="n">
         <v>0</v>
       </c>
+      <c r="F499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -8920,6 +10417,9 @@
       <c r="E500" t="n">
         <v>0</v>
       </c>
+      <c r="F500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -8937,6 +10437,9 @@
       <c r="E501" t="n">
         <v>0</v>
       </c>
+      <c r="F501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -8954,6 +10457,9 @@
       <c r="E502" t="n">
         <v>0</v>
       </c>
+      <c r="F502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -8971,6 +10477,9 @@
       <c r="E503" t="n">
         <v>0</v>
       </c>
+      <c r="F503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -8988,6 +10497,9 @@
       <c r="E504" t="n">
         <v>0</v>
       </c>
+      <c r="F504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -9005,6 +10517,9 @@
       <c r="E505" t="n">
         <v>0</v>
       </c>
+      <c r="F505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -9022,6 +10537,9 @@
       <c r="E506" t="n">
         <v>0</v>
       </c>
+      <c r="F506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -9039,6 +10557,9 @@
       <c r="E507" t="n">
         <v>0</v>
       </c>
+      <c r="F507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -9056,6 +10577,9 @@
       <c r="E508" t="n">
         <v>0</v>
       </c>
+      <c r="F508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -9073,6 +10597,9 @@
       <c r="E509" t="n">
         <v>0</v>
       </c>
+      <c r="F509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -9090,6 +10617,9 @@
       <c r="E510" t="n">
         <v>0</v>
       </c>
+      <c r="F510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -9107,6 +10637,9 @@
       <c r="E511" t="n">
         <v>0</v>
       </c>
+      <c r="F511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -9124,6 +10657,9 @@
       <c r="E512" t="n">
         <v>0</v>
       </c>
+      <c r="F512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -9141,6 +10677,9 @@
       <c r="E513" t="n">
         <v>0</v>
       </c>
+      <c r="F513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -9158,6 +10697,9 @@
       <c r="E514" t="n">
         <v>0</v>
       </c>
+      <c r="F514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -9175,6 +10717,9 @@
       <c r="E515" t="n">
         <v>0</v>
       </c>
+      <c r="F515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -9192,6 +10737,9 @@
       <c r="E516" t="n">
         <v>0</v>
       </c>
+      <c r="F516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -9209,6 +10757,9 @@
       <c r="E517" t="n">
         <v>0</v>
       </c>
+      <c r="F517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -9226,6 +10777,9 @@
       <c r="E518" t="n">
         <v>0</v>
       </c>
+      <c r="F518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -9243,6 +10797,9 @@
       <c r="E519" t="n">
         <v>0</v>
       </c>
+      <c r="F519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -9260,6 +10817,9 @@
       <c r="E520" t="n">
         <v>0</v>
       </c>
+      <c r="F520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -9277,6 +10837,9 @@
       <c r="E521" t="n">
         <v>0</v>
       </c>
+      <c r="F521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -9294,6 +10857,9 @@
       <c r="E522" t="n">
         <v>0</v>
       </c>
+      <c r="F522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -9311,6 +10877,9 @@
       <c r="E523" t="n">
         <v>0</v>
       </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -9328,6 +10897,9 @@
       <c r="E524" t="n">
         <v>0</v>
       </c>
+      <c r="F524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -9345,6 +10917,9 @@
       <c r="E525" t="n">
         <v>0</v>
       </c>
+      <c r="F525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -9362,6 +10937,9 @@
       <c r="E526" t="n">
         <v>0</v>
       </c>
+      <c r="F526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -9379,6 +10957,9 @@
       <c r="E527" t="n">
         <v>0</v>
       </c>
+      <c r="F527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -9396,6 +10977,9 @@
       <c r="E528" t="n">
         <v>0</v>
       </c>
+      <c r="F528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -9413,6 +10997,9 @@
       <c r="E529" t="n">
         <v>0</v>
       </c>
+      <c r="F529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -9430,6 +11017,9 @@
       <c r="E530" t="n">
         <v>0</v>
       </c>
+      <c r="F530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -9447,6 +11037,9 @@
       <c r="E531" t="n">
         <v>0.17</v>
       </c>
+      <c r="F531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -9464,6 +11057,9 @@
       <c r="E532" t="n">
         <v>0.11</v>
       </c>
+      <c r="F532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -9481,6 +11077,9 @@
       <c r="E533" t="n">
         <v>0</v>
       </c>
+      <c r="F533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -9498,6 +11097,9 @@
       <c r="E534" t="n">
         <v>0.16</v>
       </c>
+      <c r="F534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -9515,6 +11117,9 @@
       <c r="E535" t="n">
         <v>0.15</v>
       </c>
+      <c r="F535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -9532,6 +11137,9 @@
       <c r="E536" t="n">
         <v>0.3</v>
       </c>
+      <c r="F536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -9549,6 +11157,9 @@
       <c r="E537" t="n">
         <v>0</v>
       </c>
+      <c r="F537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -9566,6 +11177,9 @@
       <c r="E538" t="n">
         <v>0.14</v>
       </c>
+      <c r="F538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -9583,6 +11197,9 @@
       <c r="E539" t="n">
         <v>0</v>
       </c>
+      <c r="F539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -9600,6 +11217,9 @@
       <c r="E540" t="n">
         <v>0.15</v>
       </c>
+      <c r="F540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -9617,6 +11237,9 @@
       <c r="E541" t="n">
         <v>0.3</v>
       </c>
+      <c r="F541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -9634,6 +11257,9 @@
       <c r="E542" t="n">
         <v>0</v>
       </c>
+      <c r="F542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -9651,6 +11277,9 @@
       <c r="E543" t="n">
         <v>0</v>
       </c>
+      <c r="F543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -9668,6 +11297,9 @@
       <c r="E544" t="n">
         <v>0</v>
       </c>
+      <c r="F544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -9685,6 +11317,9 @@
       <c r="E545" t="n">
         <v>0</v>
       </c>
+      <c r="F545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -9702,6 +11337,9 @@
       <c r="E546" t="n">
         <v>0</v>
       </c>
+      <c r="F546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -9719,6 +11357,9 @@
       <c r="E547" t="n">
         <v>0</v>
       </c>
+      <c r="F547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -9736,6 +11377,9 @@
       <c r="E548" t="n">
         <v>0</v>
       </c>
+      <c r="F548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -9753,6 +11397,9 @@
       <c r="E549" t="n">
         <v>0</v>
       </c>
+      <c r="F549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -9770,6 +11417,9 @@
       <c r="E550" t="n">
         <v>0</v>
       </c>
+      <c r="F550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -9787,6 +11437,9 @@
       <c r="E551" t="n">
         <v>0</v>
       </c>
+      <c r="F551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -9804,6 +11457,9 @@
       <c r="E552" t="n">
         <v>0</v>
       </c>
+      <c r="F552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -9821,6 +11477,9 @@
       <c r="E553" t="n">
         <v>0</v>
       </c>
+      <c r="F553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -9838,6 +11497,9 @@
       <c r="E554" t="n">
         <v>0</v>
       </c>
+      <c r="F554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -9855,6 +11517,9 @@
       <c r="E555" t="n">
         <v>0</v>
       </c>
+      <c r="F555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -9872,6 +11537,9 @@
       <c r="E556" t="n">
         <v>0</v>
       </c>
+      <c r="F556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -9889,6 +11557,9 @@
       <c r="E557" t="n">
         <v>0</v>
       </c>
+      <c r="F557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -9906,6 +11577,9 @@
       <c r="E558" t="n">
         <v>0</v>
       </c>
+      <c r="F558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -9923,6 +11597,9 @@
       <c r="E559" t="n">
         <v>0</v>
       </c>
+      <c r="F559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -9940,6 +11617,9 @@
       <c r="E560" t="n">
         <v>0.14</v>
       </c>
+      <c r="F560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -9957,6 +11637,9 @@
       <c r="E561" t="n">
         <v>0.18</v>
       </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -9974,6 +11657,9 @@
       <c r="E562" t="n">
         <v>0.18</v>
       </c>
+      <c r="F562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -9991,6 +11677,9 @@
       <c r="E563" t="n">
         <v>0.11</v>
       </c>
+      <c r="F563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -10008,6 +11697,9 @@
       <c r="E564" t="n">
         <v>0</v>
       </c>
+      <c r="F564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -10025,6 +11717,9 @@
       <c r="E565" t="n">
         <v>0.11</v>
       </c>
+      <c r="F565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -10042,6 +11737,9 @@
       <c r="E566" t="n">
         <v>0.17</v>
       </c>
+      <c r="F566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -10059,6 +11757,9 @@
       <c r="E567" t="n">
         <v>0.29</v>
       </c>
+      <c r="F567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -10076,6 +11777,9 @@
       <c r="E568" t="n">
         <v>0.11</v>
       </c>
+      <c r="F568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -10093,6 +11797,9 @@
       <c r="E569" t="n">
         <v>0.11</v>
       </c>
+      <c r="F569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -10110,6 +11817,9 @@
       <c r="E570" t="n">
         <v>0</v>
       </c>
+      <c r="F570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -10127,6 +11837,9 @@
       <c r="E571" t="n">
         <v>0</v>
       </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -10144,6 +11857,9 @@
       <c r="E572" t="n">
         <v>0</v>
       </c>
+      <c r="F572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -10161,6 +11877,9 @@
       <c r="E573" t="n">
         <v>0.12</v>
       </c>
+      <c r="F573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -10178,6 +11897,9 @@
       <c r="E574" t="n">
         <v>0</v>
       </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -10195,6 +11917,9 @@
       <c r="E575" t="n">
         <v>0</v>
       </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -10212,6 +11937,9 @@
       <c r="E576" t="n">
         <v>0</v>
       </c>
+      <c r="F576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -10229,6 +11957,9 @@
       <c r="E577" t="n">
         <v>0</v>
       </c>
+      <c r="F577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -10246,6 +11977,9 @@
       <c r="E578" t="n">
         <v>0</v>
       </c>
+      <c r="F578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -10263,6 +11997,9 @@
       <c r="E579" t="n">
         <v>0</v>
       </c>
+      <c r="F579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -10280,6 +12017,9 @@
       <c r="E580" t="n">
         <v>0</v>
       </c>
+      <c r="F580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -10297,6 +12037,9 @@
       <c r="E581" t="n">
         <v>0</v>
       </c>
+      <c r="F581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -10314,6 +12057,9 @@
       <c r="E582" t="n">
         <v>0</v>
       </c>
+      <c r="F582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -10331,6 +12077,9 @@
       <c r="E583" t="n">
         <v>0</v>
       </c>
+      <c r="F583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -10348,6 +12097,9 @@
       <c r="E584" t="n">
         <v>0.2</v>
       </c>
+      <c r="F584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -10365,6 +12117,9 @@
       <c r="E585" t="n">
         <v>0.22</v>
       </c>
+      <c r="F585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -10381,6 +12136,9 @@
       </c>
       <c r="E586" t="n">
         <v>0.21</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -10399,6 +12157,9 @@
       <c r="E587" t="n">
         <v>0.14</v>
       </c>
+      <c r="F587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -10416,6 +12177,9 @@
       <c r="E588" t="n">
         <v>0.21</v>
       </c>
+      <c r="F588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -10433,6 +12197,9 @@
       <c r="E589" t="n">
         <v>0.18</v>
       </c>
+      <c r="F589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -10450,6 +12217,9 @@
       <c r="E590" t="n">
         <v>0.17</v>
       </c>
+      <c r="F590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -10467,6 +12237,9 @@
       <c r="E591" t="n">
         <v>0.15</v>
       </c>
+      <c r="F591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -10484,6 +12257,9 @@
       <c r="E592" t="n">
         <v>0</v>
       </c>
+      <c r="F592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -10501,6 +12277,9 @@
       <c r="E593" t="n">
         <v>0</v>
       </c>
+      <c r="F593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -10518,6 +12297,9 @@
       <c r="E594" t="n">
         <v>0.16</v>
       </c>
+      <c r="F594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -10535,6 +12317,9 @@
       <c r="E595" t="n">
         <v>0.18</v>
       </c>
+      <c r="F595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -10552,6 +12337,9 @@
       <c r="E596" t="n">
         <v>0.2</v>
       </c>
+      <c r="F596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -10569,6 +12357,9 @@
       <c r="E597" t="n">
         <v>0.17</v>
       </c>
+      <c r="F597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -10586,6 +12377,9 @@
       <c r="E598" t="n">
         <v>0.15</v>
       </c>
+      <c r="F598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -10603,6 +12397,9 @@
       <c r="E599" t="n">
         <v>0</v>
       </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -10620,6 +12417,9 @@
       <c r="E600" t="n">
         <v>0.23</v>
       </c>
+      <c r="F600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -10637,6 +12437,9 @@
       <c r="E601" t="n">
         <v>0.26</v>
       </c>
+      <c r="F601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -10654,39 +12457,48 @@
       <c r="E602" t="n">
         <v>0.21</v>
       </c>
+      <c r="F602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B603" t="n">
-        <v>99</v>
+        <v>0.26</v>
       </c>
       <c r="C603" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D603" t="n">
-        <v>99</v>
+        <v>0.13</v>
       </c>
       <c r="E603" t="n">
-        <v>99</v>
+        <v>0.26</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B604" t="n">
-        <v>99</v>
+        <v>0.24</v>
       </c>
       <c r="C604" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D604" t="n">
-        <v>99</v>
+        <v>0.12</v>
       </c>
       <c r="E604" t="n">
-        <v>99</v>
+        <v>0.24</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="605">
@@ -10705,73 +12517,88 @@
       <c r="E605" t="n">
         <v>0</v>
       </c>
+      <c r="F605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B606" t="n">
-        <v>99</v>
+        <v>0.24</v>
       </c>
       <c r="C606" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D606" t="n">
-        <v>99</v>
+        <v>0.13</v>
       </c>
       <c r="E606" t="n">
-        <v>99</v>
+        <v>0.24</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B607" t="n">
-        <v>99</v>
+        <v>0.26</v>
       </c>
       <c r="C607" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D607" t="n">
-        <v>99</v>
+        <v>0.15</v>
       </c>
       <c r="E607" t="n">
-        <v>99</v>
+        <v>0.26</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B608" t="n">
-        <v>99</v>
+        <v>0.26</v>
       </c>
       <c r="C608" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D608" t="n">
-        <v>99</v>
+        <v>0.15</v>
       </c>
       <c r="E608" t="n">
-        <v>99</v>
+        <v>0.26</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B609" t="n">
-        <v>99</v>
+        <v>0.26</v>
       </c>
       <c r="C609" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D609" t="n">
-        <v>99</v>
+        <v>0.17</v>
       </c>
       <c r="E609" t="n">
-        <v>99</v>
+        <v>0.26</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="610">
@@ -10790,6 +12617,9 @@
       <c r="E610" t="n">
         <v>0.19</v>
       </c>
+      <c r="F610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -10807,6 +12637,9 @@
       <c r="E611" t="n">
         <v>0.18</v>
       </c>
+      <c r="F611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -10823,6 +12656,9 @@
       </c>
       <c r="E612" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -10841,6 +12677,9 @@
       <c r="E613" t="n">
         <v>0.16</v>
       </c>
+      <c r="F613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -10858,6 +12697,9 @@
       <c r="E614" t="n">
         <v>0.24</v>
       </c>
+      <c r="F614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -10875,6 +12717,9 @@
       <c r="E615" t="n">
         <v>0.22</v>
       </c>
+      <c r="F615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -10892,6 +12737,9 @@
       <c r="E616" t="n">
         <v>0.18</v>
       </c>
+      <c r="F616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -10909,6 +12757,9 @@
       <c r="E617" t="n">
         <v>0.11</v>
       </c>
+      <c r="F617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -10926,6 +12777,9 @@
       <c r="E618" t="n">
         <v>0.18</v>
       </c>
+      <c r="F618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -10943,6 +12797,9 @@
       <c r="E619" t="n">
         <v>0.15</v>
       </c>
+      <c r="F619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -10960,6 +12817,9 @@
       <c r="E620" t="n">
         <v>0</v>
       </c>
+      <c r="F620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -10977,6 +12837,9 @@
       <c r="E621" t="n">
         <v>0.15</v>
       </c>
+      <c r="F621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -10994,6 +12857,9 @@
       <c r="E622" t="n">
         <v>0</v>
       </c>
+      <c r="F622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -11011,6 +12877,9 @@
       <c r="E623" t="n">
         <v>0.11</v>
       </c>
+      <c r="F623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -11028,6 +12897,9 @@
       <c r="E624" t="n">
         <v>0.11</v>
       </c>
+      <c r="F624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -11045,6 +12917,9 @@
       <c r="E625" t="n">
         <v>0.18</v>
       </c>
+      <c r="F625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -11062,6 +12937,9 @@
       <c r="E626" t="n">
         <v>0.2</v>
       </c>
+      <c r="F626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -11079,6 +12957,9 @@
       <c r="E627" t="n">
         <v>0.22</v>
       </c>
+      <c r="F627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -11096,6 +12977,9 @@
       <c r="E628" t="n">
         <v>0.22</v>
       </c>
+      <c r="F628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -11113,6 +12997,9 @@
       <c r="E629" t="n">
         <v>0.22</v>
       </c>
+      <c r="F629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -11130,6 +13017,9 @@
       <c r="E630" t="n">
         <v>0.21</v>
       </c>
+      <c r="F630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -11147,6 +13037,9 @@
       <c r="E631" t="n">
         <v>0.23</v>
       </c>
+      <c r="F631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -11164,6 +13057,9 @@
       <c r="E632" t="n">
         <v>0.19</v>
       </c>
+      <c r="F632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -11181,6 +13077,9 @@
       <c r="E633" t="n">
         <v>0.11</v>
       </c>
+      <c r="F633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -11198,6 +13097,9 @@
       <c r="E634" t="n">
         <v>0</v>
       </c>
+      <c r="F634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -11215,6 +13117,9 @@
       <c r="E635" t="n">
         <v>0</v>
       </c>
+      <c r="F635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -11232,6 +13137,9 @@
       <c r="E636" t="n">
         <v>0</v>
       </c>
+      <c r="F636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -11249,6 +13157,9 @@
       <c r="E637" t="n">
         <v>0</v>
       </c>
+      <c r="F637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -11266,6 +13177,9 @@
       <c r="E638" t="n">
         <v>0</v>
       </c>
+      <c r="F638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -11283,6 +13197,9 @@
       <c r="E639" t="n">
         <v>0</v>
       </c>
+      <c r="F639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -11300,6 +13217,9 @@
       <c r="E640" t="n">
         <v>0</v>
       </c>
+      <c r="F640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -11317,6 +13237,9 @@
       <c r="E641" t="n">
         <v>0</v>
       </c>
+      <c r="F641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -11334,6 +13257,9 @@
       <c r="E642" t="n">
         <v>0</v>
       </c>
+      <c r="F642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -11349,6 +13275,9 @@
         <v>0</v>
       </c>
       <c r="E643" t="n">
+        <v>0</v>
+      </c>
+      <c r="F643" t="n">
         <v>0</v>
       </c>
     </row>
